--- a/test-data/SupplierInsight.xlsx
+++ b/test-data/SupplierInsight.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1034567\Documents\PowerBI_UIAutomation_BY\test-data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E0932D-FC87-4005-95AC-C297BFD18F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8684A2C-666D-4153-A7B8-AB143BBBB708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="343" activeTab="1" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="343" xr2:uid="{0B4A8E6E-F8CA-43BC-BEFF-B76DEDB83242}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterController" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1852" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1754" uniqueCount="298">
   <si>
     <t>TestCaseID</t>
   </si>
@@ -930,23 +930,13 @@
     <t>TC75_Supplier Score_Chart_Check if the X axis months are sorted in ascending order</t>
   </si>
   <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Phantoon*1984a</t>
-  </si>
-  <si>
     <t>PASS</t>
-  </si>
-  <si>
-    <t>Fail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1482,18 +1472,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C59EEE0-8024-49F9-B38F-5F969C91403C}">
   <dimension ref="A1:F89"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="109.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="14.140625" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="18.140625" collapsed="true"/>
-    <col min="5" max="6" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.0" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="109.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.140625" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
@@ -1526,11 +1516,9 @@
       <c r="C2" s="34">
         <v>1</v>
       </c>
-      <c r="D2" s="34" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" t="s">
         <v>297</v>
-      </c>
-      <c r="E2" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="3" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
@@ -2583,18 +2571,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE6C6D2F-C39B-48C4-83D8-2481A37AF322}">
   <dimension ref="A1:G539"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="5" width="78.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="5" width="55.42578125" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="23.5703125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" style="5" width="9.7109375" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" style="5" width="103.85546875" collapsed="true"/>
-    <col min="7" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="78.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="55.42578125" style="5" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="23.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="9.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="103.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -2631,9 +2619,7 @@
       <c r="C3" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="D3" s="5"/>
       <c r="E3" s="13"/>
     </row>
     <row r="4" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2646,9 +2632,7 @@
       <c r="C4" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D4" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="D4" s="5"/>
       <c r="E4" s="13"/>
     </row>
     <row r="5" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2661,9 +2645,7 @@
       <c r="C5" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="D5" s="5"/>
       <c r="E5" s="13"/>
     </row>
     <row r="6" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.25">
@@ -2676,9 +2658,7 @@
       <c r="C6" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>299</v>
-      </c>
+      <c r="D6" s="5"/>
       <c r="E6" s="13"/>
     </row>
     <row r="7" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
@@ -6986,7 +6966,7 @@
         <v>41</v>
       </c>
       <c r="D389" s="5" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E389" s="13"/>
     </row>
@@ -7829,25 +7809,25 @@
   <dimension ref="A1:P89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2:F88"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" style="5" width="19.85546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" style="5" width="8.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="5" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" style="5" width="126.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="5" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="5" width="15.7109375" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" style="5" width="12.85546875" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="5" width="42.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="5" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="5" width="28.0" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" style="5" width="22.42578125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" style="5" width="24.42578125" collapsed="true"/>
-    <col min="13" max="16384" style="5" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.7109375" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="126.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" style="5" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.7109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.85546875" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="42.5703125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="28" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="22.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="24.42578125" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="13" max="16384" width="9.140625" style="5" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" s="22" customFormat="1" x14ac:dyDescent="0.25">
@@ -7908,9 +7888,7 @@
       <c r="E2" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F2" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F2" s="23"/>
       <c r="G2" s="24" t="s">
         <v>17</v>
       </c>
@@ -7931,9 +7909,7 @@
       <c r="E3" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F3" s="23"/>
       <c r="G3" s="24" t="s">
         <v>17</v>
       </c>
@@ -7957,9 +7933,7 @@
       <c r="E4" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F4" s="23"/>
       <c r="G4" s="24" t="s">
         <v>17</v>
       </c>
@@ -7982,9 +7956,7 @@
       <c r="E5" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F5" s="23"/>
       <c r="G5" s="24" t="s">
         <v>17</v>
       </c>
@@ -8005,9 +7977,7 @@
       <c r="E6" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F6" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F6" s="23"/>
       <c r="G6" s="24" t="s">
         <v>17</v>
       </c>
@@ -8028,9 +7998,7 @@
       <c r="E7" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F7" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F7" s="23"/>
       <c r="G7" s="24" t="s">
         <v>17</v>
       </c>
@@ -8051,9 +8019,7 @@
       <c r="E8" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F8" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F8" s="23"/>
       <c r="G8" s="24" t="s">
         <v>17</v>
       </c>
@@ -8074,9 +8040,7 @@
       <c r="E9" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F9" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F9" s="23"/>
       <c r="G9" s="24" t="s">
         <v>17</v>
       </c>
@@ -8097,9 +8061,7 @@
       <c r="E10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F10" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F10" s="23"/>
       <c r="G10" s="24" t="s">
         <v>17</v>
       </c>
@@ -8120,9 +8082,7 @@
       <c r="E11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F11" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F11" s="23"/>
       <c r="G11" s="24" t="s">
         <v>17</v>
       </c>
@@ -8143,9 +8103,7 @@
       <c r="E12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F12" s="23"/>
       <c r="G12" s="24" t="s">
         <v>17</v>
       </c>
@@ -8166,9 +8124,7 @@
       <c r="E13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F13" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F13" s="23"/>
       <c r="G13" s="24" t="s">
         <v>17</v>
       </c>
@@ -8189,9 +8145,7 @@
       <c r="E14" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F14" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F14" s="23"/>
       <c r="G14" s="24" t="s">
         <v>17</v>
       </c>
@@ -8212,9 +8166,7 @@
       <c r="E15" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F15" s="23"/>
       <c r="G15" s="24" t="s">
         <v>17</v>
       </c>
@@ -8235,9 +8187,7 @@
       <c r="E16" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F16" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F16" s="23"/>
       <c r="G16" s="24" t="s">
         <v>17</v>
       </c>
@@ -8258,9 +8208,7 @@
       <c r="E17" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F17" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F17" s="23"/>
       <c r="G17" s="24" t="s">
         <v>17</v>
       </c>
@@ -8281,9 +8229,7 @@
       <c r="E18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F18" s="23"/>
       <c r="G18" s="24" t="s">
         <v>17</v>
       </c>
@@ -8310,9 +8256,7 @@
       <c r="E19" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F19" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F19" s="23"/>
       <c r="G19" s="24" t="s">
         <v>17</v>
       </c>
@@ -8333,9 +8277,7 @@
       <c r="E20" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F20" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F20" s="23"/>
       <c r="G20" s="24" t="s">
         <v>17</v>
       </c>
@@ -8362,9 +8304,7 @@
       <c r="E21" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F21" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F21" s="23"/>
       <c r="G21" s="24" t="s">
         <v>17</v>
       </c>
@@ -8385,9 +8325,7 @@
       <c r="E22" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F22" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F22" s="23"/>
       <c r="G22" s="24" t="s">
         <v>17</v>
       </c>
@@ -8408,9 +8346,7 @@
       <c r="E23" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F23" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F23" s="23"/>
       <c r="G23" s="24" t="s">
         <v>17</v>
       </c>
@@ -8431,9 +8367,7 @@
       <c r="E24" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F24" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F24" s="23"/>
       <c r="G24" s="24" t="s">
         <v>17</v>
       </c>
@@ -8454,9 +8388,7 @@
       <c r="E25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F25" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F25" s="23"/>
       <c r="G25" s="24" t="s">
         <v>17</v>
       </c>
@@ -8480,9 +8412,7 @@
       <c r="E26" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F26" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F26" s="23"/>
       <c r="G26" s="24" t="s">
         <v>17</v>
       </c>
@@ -8505,9 +8435,7 @@
       <c r="E27" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F27" s="23"/>
       <c r="G27" s="24" t="s">
         <v>17</v>
       </c>
@@ -8530,9 +8458,7 @@
       <c r="E28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F28" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F28" s="23"/>
       <c r="G28" s="24" t="s">
         <v>17</v>
       </c>
@@ -8555,9 +8481,7 @@
       <c r="E29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F29" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F29" s="23"/>
       <c r="G29" s="24" t="s">
         <v>17</v>
       </c>
@@ -8580,9 +8504,7 @@
       <c r="E30" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F30" s="23"/>
       <c r="G30" s="24" t="s">
         <v>17</v>
       </c>
@@ -8605,9 +8527,7 @@
       <c r="E31" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F31" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F31" s="23"/>
       <c r="G31" s="24" t="s">
         <v>17</v>
       </c>
@@ -8630,9 +8550,7 @@
       <c r="E32" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F32" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F32" s="23"/>
       <c r="G32" s="24" t="s">
         <v>17</v>
       </c>
@@ -8655,9 +8573,7 @@
       <c r="E33" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F33" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F33" s="23"/>
       <c r="G33" s="24" t="s">
         <v>17</v>
       </c>
@@ -8680,9 +8596,7 @@
       <c r="E34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F34" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F34" s="23"/>
       <c r="G34" s="24" t="s">
         <v>17</v>
       </c>
@@ -8705,9 +8619,7 @@
       <c r="E35" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F35" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F35" s="23"/>
       <c r="G35" s="24" t="s">
         <v>17</v>
       </c>
@@ -8730,9 +8642,7 @@
       <c r="E36" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F36" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F36" s="23"/>
       <c r="G36" s="24" t="s">
         <v>17</v>
       </c>
@@ -8755,9 +8665,7 @@
       <c r="E37" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F37" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F37" s="23"/>
       <c r="G37" s="24" t="s">
         <v>17</v>
       </c>
@@ -8780,9 +8688,7 @@
       <c r="E38" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F38" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F38" s="23"/>
       <c r="G38" s="24" t="s">
         <v>17</v>
       </c>
@@ -8805,9 +8711,7 @@
       <c r="E39" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F39" s="23"/>
       <c r="G39" s="24" t="s">
         <v>17</v>
       </c>
@@ -8830,9 +8734,7 @@
       <c r="E40" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F40" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F40" s="23"/>
       <c r="G40" s="24" t="s">
         <v>17</v>
       </c>
@@ -8860,9 +8762,7 @@
       <c r="E41" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F41" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F41" s="23"/>
       <c r="G41" s="24" t="s">
         <v>17</v>
       </c>
@@ -8890,9 +8790,7 @@
       <c r="E42" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F42" s="23"/>
       <c r="G42" s="24" t="s">
         <v>17</v>
       </c>
@@ -8924,9 +8822,7 @@
       <c r="E43" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F43" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F43" s="23"/>
       <c r="G43" s="24" t="s">
         <v>17</v>
       </c>
@@ -8958,9 +8854,7 @@
       <c r="E44" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F44" s="23"/>
       <c r="G44" s="24" t="s">
         <v>17</v>
       </c>
@@ -8988,9 +8882,7 @@
       <c r="E45" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F45" s="23"/>
       <c r="G45" s="24" t="s">
         <v>17</v>
       </c>
@@ -9018,9 +8910,7 @@
       <c r="E46" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F46" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F46" s="23"/>
       <c r="G46" s="24" t="s">
         <v>17</v>
       </c>
@@ -9048,9 +8938,7 @@
       <c r="E47" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F47" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F47" s="23"/>
       <c r="G47" s="24" t="s">
         <v>17</v>
       </c>
@@ -9078,9 +8966,7 @@
       <c r="E48" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F48" s="23"/>
       <c r="G48" s="24" t="s">
         <v>17</v>
       </c>
@@ -9110,9 +8996,7 @@
       <c r="E49" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F49" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F49" s="23"/>
       <c r="G49" s="24" t="s">
         <v>17</v>
       </c>
@@ -9142,9 +9026,7 @@
       <c r="E50" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F50" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F50" s="23"/>
       <c r="G50" s="24" t="s">
         <v>17</v>
       </c>
@@ -9174,9 +9056,7 @@
       <c r="E51" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F51" s="23"/>
       <c r="G51" s="24" t="s">
         <v>17</v>
       </c>
@@ -9204,9 +9084,7 @@
       <c r="E52" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F52" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F52" s="23"/>
       <c r="G52" s="24" t="s">
         <v>17</v>
       </c>
@@ -9238,9 +9116,7 @@
       <c r="E53" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F53" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F53" s="23"/>
       <c r="G53" s="24" t="s">
         <v>17</v>
       </c>
@@ -9272,9 +9148,7 @@
       <c r="E54" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F54" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F54" s="23"/>
       <c r="G54" s="24" t="s">
         <v>17</v>
       </c>
@@ -9302,9 +9176,7 @@
       <c r="E55" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F55" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F55" s="23"/>
       <c r="G55" s="24" t="s">
         <v>17</v>
       </c>
@@ -9332,9 +9204,7 @@
       <c r="E56" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F56" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F56" s="23"/>
       <c r="G56" s="24" t="s">
         <v>17</v>
       </c>
@@ -9362,9 +9232,7 @@
       <c r="E57" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F57" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F57" s="23"/>
       <c r="G57" s="24" t="s">
         <v>17</v>
       </c>
@@ -9392,9 +9260,7 @@
       <c r="E58" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F58" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F58" s="23"/>
       <c r="G58" s="24" t="s">
         <v>17</v>
       </c>
@@ -9424,9 +9290,7 @@
       <c r="E59" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F59" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F59" s="23"/>
       <c r="G59" s="24" t="s">
         <v>17</v>
       </c>
@@ -9456,9 +9320,7 @@
       <c r="E60" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F60" s="23"/>
       <c r="G60" s="24" t="s">
         <v>17</v>
       </c>
@@ -9488,9 +9350,7 @@
       <c r="E61" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F61" s="23"/>
       <c r="G61" s="24" t="s">
         <v>17</v>
       </c>
@@ -9518,9 +9378,7 @@
       <c r="E62" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F62" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F62" s="23"/>
       <c r="G62" s="24" t="s">
         <v>17</v>
       </c>
@@ -9553,9 +9411,7 @@
       <c r="E63" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F63" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F63" s="23"/>
       <c r="G63" s="24" t="s">
         <v>17</v>
       </c>
@@ -9588,9 +9444,7 @@
       <c r="E64" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F64" s="23"/>
       <c r="G64" s="24" t="s">
         <v>17</v>
       </c>
@@ -9618,9 +9472,7 @@
       <c r="E65" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F65" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F65" s="23"/>
       <c r="G65" s="24" t="s">
         <v>17</v>
       </c>
@@ -9648,9 +9500,7 @@
       <c r="E66" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F66" s="23"/>
       <c r="G66" s="24" t="s">
         <v>17</v>
       </c>
@@ -9678,9 +9528,7 @@
       <c r="E67" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F67" s="23"/>
       <c r="G67" s="24" t="s">
         <v>17</v>
       </c>
@@ -9708,9 +9556,7 @@
       <c r="E68" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F68" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F68" s="23"/>
       <c r="G68" s="24" t="s">
         <v>17</v>
       </c>
@@ -9733,9 +9579,7 @@
       <c r="E69" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F69" s="23"/>
       <c r="G69" s="24" t="s">
         <v>17</v>
       </c>
@@ -9758,9 +9602,7 @@
       <c r="E70" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F70" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F70" s="23"/>
       <c r="G70" s="24" t="s">
         <v>17</v>
       </c>
@@ -9783,9 +9625,7 @@
       <c r="E71" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F71" s="23"/>
       <c r="G71" s="24" t="s">
         <v>17</v>
       </c>
@@ -9808,9 +9648,7 @@
       <c r="E72" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F72" s="23"/>
       <c r="G72" s="24" t="s">
         <v>17</v>
       </c>
@@ -9833,9 +9671,7 @@
       <c r="E73" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F73" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F73" s="23"/>
       <c r="G73" s="24" t="s">
         <v>17</v>
       </c>
@@ -9858,9 +9694,7 @@
       <c r="E74" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F74" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F74" s="23"/>
       <c r="G74" s="24" t="s">
         <v>17</v>
       </c>
@@ -9883,9 +9717,7 @@
       <c r="E75" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F75" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F75" s="23"/>
       <c r="G75" s="24" t="s">
         <v>17</v>
       </c>
@@ -9908,9 +9740,7 @@
       <c r="E76" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F76" s="23"/>
       <c r="G76" s="24" t="s">
         <v>17</v>
       </c>
@@ -9933,9 +9763,7 @@
       <c r="E77" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F77" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F77" s="23"/>
       <c r="G77" s="24" t="s">
         <v>17</v>
       </c>
@@ -9958,9 +9786,7 @@
       <c r="E78" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F78" s="23"/>
       <c r="G78" s="24" t="s">
         <v>17</v>
       </c>
@@ -9983,9 +9809,7 @@
       <c r="E79" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F79" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F79" s="23"/>
       <c r="G79" s="24" t="s">
         <v>17</v>
       </c>
@@ -10008,9 +9832,7 @@
       <c r="E80" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F80" s="23"/>
       <c r="G80" s="24" t="s">
         <v>17</v>
       </c>
@@ -10033,9 +9855,7 @@
       <c r="E81" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F81" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F81" s="23"/>
       <c r="G81" s="24" t="s">
         <v>17</v>
       </c>
@@ -10058,9 +9878,7 @@
       <c r="E82" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F82" s="23"/>
       <c r="G82" s="24" t="s">
         <v>17</v>
       </c>
@@ -10083,9 +9901,7 @@
       <c r="E83" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F83" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F83" s="23"/>
       <c r="G83" s="24" t="s">
         <v>17</v>
       </c>
@@ -10108,9 +9924,7 @@
       <c r="E84" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F84" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F84" s="23"/>
       <c r="G84" s="24" t="s">
         <v>17</v>
       </c>
@@ -10133,9 +9947,7 @@
       <c r="E85" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F85" s="23"/>
       <c r="G85" s="24" t="s">
         <v>17</v>
       </c>
@@ -10158,9 +9970,7 @@
       <c r="E86" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F86" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F86" s="23"/>
       <c r="G86" s="24" t="s">
         <v>17</v>
       </c>
@@ -10183,9 +9993,7 @@
       <c r="E87" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F87" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F87" s="23"/>
       <c r="G87" s="24" t="s">
         <v>17</v>
       </c>
@@ -10208,9 +10016,7 @@
       <c r="E88" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F88" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F88" s="23"/>
       <c r="G88" s="24" t="s">
         <v>17</v>
       </c>
@@ -10233,9 +10039,7 @@
       <c r="E89" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="23" t="s">
-        <v>298</v>
-      </c>
+      <c r="F89" s="23"/>
       <c r="G89" s="24" t="s">
         <v>17</v>
       </c>
